--- a/results/BENDR_random_init.xlsx
+++ b/results/BENDR_random_init.xlsx
@@ -489,13 +489,13 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857142</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D2">
-        <v>0.7142857313156128</v>
+        <v>0.761904776096344</v>
       </c>
       <c r="E2">
-        <v>1.298068046569824</v>
+        <v>0.7718323469161987</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>0.7142857313156128</v>
       </c>
       <c r="E3">
-        <v>1.069349527359009</v>
+        <v>1.389104723930359</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -535,7 +535,7 @@
         <v>0.761904776096344</v>
       </c>
       <c r="E4">
-        <v>1.210032105445862</v>
+        <v>0.7429655790328979</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>0.738095223903656</v>
       </c>
       <c r="E5">
-        <v>0.7429140210151672</v>
+        <v>0.7664782404899597</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -569,13 +569,13 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>0.5238095238095238</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D6">
-        <v>0.523809552192688</v>
+        <v>0.5952380895614624</v>
       </c>
       <c r="E6">
-        <v>1.934839844703674</v>
+        <v>1.493608355522156</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -589,13 +589,13 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666667</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="D7">
-        <v>0.6666666865348816</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="E7">
-        <v>0.7335771918296814</v>
+        <v>1.006752490997314</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -609,13 +609,13 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.4285714328289032</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>1.879261016845703</v>
+        <v>1.276393532752991</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>0.761904776096344</v>
       </c>
       <c r="E9">
-        <v>0.9303009510040283</v>
+        <v>0.9458524584770203</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -649,13 +649,13 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0.8095238095238095</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D10">
-        <v>0.8095238208770752</v>
+        <v>0.761904776096344</v>
       </c>
       <c r="E10">
-        <v>0.6332247257232666</v>
+        <v>1.17583703994751</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -669,13 +669,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="D11">
-        <v>0.6666666865348816</v>
+        <v>0.6190476417541504</v>
       </c>
       <c r="E11">
-        <v>1.454341769218445</v>
+        <v>1.77025043964386</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -689,13 +689,13 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>0.8095238095238095</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D12">
-        <v>0.8095238208770752</v>
+        <v>0.761904776096344</v>
       </c>
       <c r="E12">
-        <v>0.7246477603912354</v>
+        <v>0.9025448560714722</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -709,13 +709,13 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>0.8809523809523809</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D13">
-        <v>0.8809523582458496</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="E13">
-        <v>0.3258815705776215</v>
+        <v>0.7043982744216919</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -729,13 +729,13 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>0.5238095238095237</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D14">
-        <v>0.523809552192688</v>
+        <v>0.4761904776096344</v>
       </c>
       <c r="E14">
-        <v>1.188910961151123</v>
+        <v>1.812139749526978</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -749,13 +749,13 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>0.6190476190476191</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="D15">
-        <v>0.6190476417541504</v>
+        <v>0.738095223903656</v>
       </c>
       <c r="E15">
-        <v>0.9375551342964172</v>
+        <v>0.9977089762687683</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -769,13 +769,13 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>0.6904761904761905</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D16">
-        <v>0.6904761791229248</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="E16">
-        <v>0.9731602668762207</v>
+        <v>1.083697438240051</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -789,13 +789,13 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="D17">
-        <v>0.4761904776096344</v>
+        <v>0.6190476417541504</v>
       </c>
       <c r="E17">
-        <v>1.768108725547791</v>
+        <v>1.407369613647461</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -809,13 +809,13 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>0.8095238095238095</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="D18">
-        <v>0.8095238208770752</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="E18">
-        <v>0.5729050636291504</v>
+        <v>0.3910869061946869</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -829,13 +829,13 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>0.8095238095238095</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="D19">
-        <v>0.8095238208770752</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="E19">
-        <v>0.3604580760002136</v>
+        <v>0.5481681227684021</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>0.6190476190476191</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="D20">
-        <v>0.6190476417541504</v>
+        <v>0.5476190447807312</v>
       </c>
       <c r="E20">
-        <v>1.648645877838135</v>
+        <v>1.347905158996582</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -869,13 +869,13 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0.8809523809523809</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="D21">
-        <v>0.8809523582458496</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="E21">
-        <v>0.7201729416847229</v>
+        <v>0.9120403528213501</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -889,13 +889,13 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
-        <v>0.5476190447807312</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
-        <v>1.061219573020935</v>
+        <v>2.030956506729126</v>
       </c>
       <c r="F22">
         <v>1</v>

--- a/results/BENDR_random_init.xlsx
+++ b/results/BENDR_random_init.xlsx
@@ -489,13 +489,13 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0.7619047619047619</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2">
-        <v>0.761904776096344</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="E2">
-        <v>0.7718323469161987</v>
+        <v>0.5172725319862366</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -509,13 +509,13 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D3">
-        <v>0.7142857313156128</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="E3">
-        <v>1.389104723930359</v>
+        <v>1.478877067565918</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,13 +529,13 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D4">
-        <v>0.761904776096344</v>
+        <v>0.8095238208770752</v>
       </c>
       <c r="E4">
-        <v>0.7429655790328979</v>
+        <v>0.4577235281467438</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -549,13 +549,13 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>0.7380952380952381</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D5">
-        <v>0.738095223903656</v>
+        <v>0.8095238208770752</v>
       </c>
       <c r="E5">
-        <v>0.7664782404899597</v>
+        <v>0.6380544900894165</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -569,13 +569,13 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>0.5952380952380952</v>
+        <v>0.5476190476190476</v>
       </c>
       <c r="D6">
-        <v>0.5952380895614624</v>
+        <v>0.5476190447807312</v>
       </c>
       <c r="E6">
-        <v>1.493608355522156</v>
+        <v>1.241914868354797</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -589,13 +589,13 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>0.6428571428571428</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.6428571343421936</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="E7">
-        <v>1.006752490997314</v>
+        <v>0.7985398173332214</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -609,13 +609,13 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.4523809552192688</v>
       </c>
       <c r="E8">
-        <v>1.276393532752991</v>
+        <v>1.738879203796387</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>0.7619047619047619</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D9">
-        <v>0.761904776096344</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="E9">
-        <v>0.9458524584770203</v>
+        <v>0.9182083606719971</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -649,13 +649,13 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0.7619047619047619</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D10">
-        <v>0.761904776096344</v>
+        <v>0.6904761791229248</v>
       </c>
       <c r="E10">
-        <v>1.17583703994751</v>
+        <v>0.8337451219558716</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -669,13 +669,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0.6190476190476191</v>
+        <v>0.5476190476190476</v>
       </c>
       <c r="D11">
-        <v>0.6190476417541504</v>
+        <v>0.5476190447807312</v>
       </c>
       <c r="E11">
-        <v>1.77025043964386</v>
+        <v>1.284439086914062</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -689,13 +689,13 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>0.7619047619047619</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="D12">
-        <v>0.761904776096344</v>
+        <v>0.8571428656578064</v>
       </c>
       <c r="E12">
-        <v>0.9025448560714722</v>
+        <v>0.7807837128639221</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -709,13 +709,13 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>0.7857142857142857</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="D13">
-        <v>0.7857142686843872</v>
+        <v>0.8809523582458496</v>
       </c>
       <c r="E13">
-        <v>0.7043982744216919</v>
+        <v>0.2719355225563049</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -729,13 +729,13 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>0.4761904761904762</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="D14">
-        <v>0.4761904776096344</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="E14">
-        <v>1.812139749526978</v>
+        <v>0.9725554585456848</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -749,13 +749,13 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>0.7380952380952381</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D15">
-        <v>0.738095223903656</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="E15">
-        <v>0.9977089762687683</v>
+        <v>1.042924523353577</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -769,13 +769,13 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>0.6666666666666666</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D16">
-        <v>0.6666666865348816</v>
+        <v>0.761904776096344</v>
       </c>
       <c r="E16">
-        <v>1.083697438240051</v>
+        <v>0.8604020476341248</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>0.6190476417541504</v>
       </c>
       <c r="E17">
-        <v>1.407369613647461</v>
+        <v>1.04828953742981</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0.8333333134651184</v>
       </c>
       <c r="E18">
-        <v>0.3910869061946869</v>
+        <v>0.4834635555744171</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -829,13 +829,13 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>0.8333333333333333</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="D19">
-        <v>0.8333333134651184</v>
+        <v>0.9047619104385376</v>
       </c>
       <c r="E19">
-        <v>0.5481681227684021</v>
+        <v>0.2839011549949646</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>0.5476190476190477</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D20">
-        <v>0.5476190447807312</v>
+        <v>0.6904761791229248</v>
       </c>
       <c r="E20">
-        <v>1.347905158996582</v>
+        <v>1.268389344215393</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0.8333333134651184</v>
       </c>
       <c r="E21">
-        <v>0.9120403528213501</v>
+        <v>0.7307503819465637</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -889,13 +889,13 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0.6190476417541504</v>
       </c>
       <c r="E22">
-        <v>2.030956506729126</v>
+        <v>1.365149974822998</v>
       </c>
       <c r="F22">
         <v>1</v>
